--- a/Running projects/Riazeda/VO/Summary of VOs.xlsx
+++ b/Running projects/Riazeda/VO/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F24F8E4-D405-4768-92E3-7467B6566EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D89643-B63D-418C-9C2A-98DD06029D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,8 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$29</definedName>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Sr #</t>
   </si>
@@ -50,7 +52,13 @@
     <t>Summary of Variation Orders</t>
   </si>
   <si>
-    <t>Variation order for PPRC Pipe &amp; Flush tank</t>
+    <t>Variation order for blyglod coating</t>
+  </si>
+  <si>
+    <t>Variation order for ducting and fans</t>
+  </si>
+  <si>
+    <t>Variation order for MCC</t>
   </si>
 </sst>
 </file>
@@ -58,8 +66,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -216,7 +224,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -243,8 +251,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,19 +264,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -277,10 +285,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -387,7 +395,51 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="H38">
-            <v>99295</v>
+            <v>272650</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="H33">
+            <v>630000</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="H33">
+            <v>435000</v>
           </cell>
         </row>
       </sheetData>
@@ -685,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -700,7 +752,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45206</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
@@ -746,22 +798,36 @@
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="17">
         <f>[1]Sheet1!$H$38</f>
-        <v>99295</v>
+        <v>272650</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="17">
+        <f>[2]Sheet1!$H$33</f>
+        <v>630000</v>
+      </c>
     </row>
     <row r="18" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="17">
+        <f>[3]Sheet1!$H$33</f>
+        <v>435000</v>
+      </c>
     </row>
     <row r="19" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
@@ -805,7 +871,7 @@
       </c>
       <c r="C26" s="22">
         <f>SUM(C16:C25)</f>
-        <v>99295</v>
+        <v>1337650</v>
       </c>
       <c r="D26" s="23"/>
     </row>
